--- a/EA_AzureSystemRequirements_Working.xlsx
+++ b/EA_AzureSystemRequirements_Working.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="3630" tabRatio="784"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="3630" tabRatio="784" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="39" r:id="rId1"/>
@@ -59,13 +59,13 @@
   </definedNames>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId24"/>
+    <pivotCache cacheId="0" r:id="rId24"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="1053">
   <si>
     <t>Title</t>
   </si>
@@ -3228,6 +3228,36 @@
   </si>
   <si>
     <t>Log into Azure via portal or PowerShell and list the subscriptions and populate the PowerShell variables for the subscriptions.</t>
+  </si>
+  <si>
+    <t>snet59</t>
+  </si>
+  <si>
+    <t>snet60</t>
+  </si>
+  <si>
+    <t>snet71</t>
+  </si>
+  <si>
+    <t>snet72</t>
+  </si>
+  <si>
+    <t>snet94</t>
+  </si>
+  <si>
+    <t>snet95</t>
+  </si>
+  <si>
+    <t>snet96</t>
+  </si>
+  <si>
+    <t>snet97</t>
+  </si>
+  <si>
+    <t>snet98</t>
+  </si>
+  <si>
+    <t>snet99</t>
   </si>
 </sst>
 </file>
@@ -3476,7 +3506,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3649,7 +3679,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -3692,16 +3721,6 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="93">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4116,6 +4135,16 @@
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -7453,7 +7482,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A2:D5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="26">
     <pivotField showAll="0"/>
@@ -7545,7 +7574,7 @@
     <dataField name="Sum of Cores (computed)" fld="23" baseField="7" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="16">
+    <format dxfId="15">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7555,7 +7584,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="14">
       <pivotArea field="7" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7575,7 +7604,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F2:G5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="26">
     <pivotField showAll="0"/>
@@ -7760,7 +7789,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="VMs" displayName="VMs" ref="A1:AG18" totalsRowShown="0" headerRowDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="VMs" displayName="VMs" ref="A1:AG18" totalsRowShown="0" headerRowDxfId="58">
   <autoFilter ref="A1:AG18">
     <filterColumn colId="1">
       <filters>
@@ -7770,60 +7799,60 @@
   </autoFilter>
   <tableColumns count="33">
     <tableColumn id="1" name="ID"/>
-    <tableColumn id="14" name="Group" dataDxfId="58"/>
-    <tableColumn id="18" name="ServerName (Computed:  Site)_x000a_&quot;Sitename + function+uid+instance&quot;" dataDxfId="57">
+    <tableColumn id="14" name="Group" dataDxfId="57"/>
+    <tableColumn id="18" name="ServerName (Computed:  Site)_x000a_&quot;Sitename + function+uid+instance&quot;" dataDxfId="56">
       <calculatedColumnFormula>LOWER(VMs[[#This Row],[SiteID (Computed)]] &amp;VMs[[#This Row],[Class]]&amp; VMs[[#This Row],[Function]]&amp;VMs[[#This Row],[Service Name '#]]&amp;VMs[[#This Row],[Instance]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Description" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="23" name="Storage (GB)" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="27" name="ImageDiskSize (GB)" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="16" name="DataDiskSize (GB)" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="20" name="LRS_Premium(512GB)" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="19" name="Function" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="6" name="RoleSize" dataDxfId="44"/>
-    <tableColumn id="12" name="Hr/Mo (&lt;=744)" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="9" name="Class" dataDxfId="41">
+    <tableColumn id="3" name="Description" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="23" name="Storage (GB)" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="27" name="ImageDiskSize (GB)" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="16" name="DataDiskSize (GB)" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="20" name="LRS_Premium(512GB)" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="19" name="Function" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="6" name="RoleSize" dataDxfId="43"/>
+    <tableColumn id="12" name="Hr/Mo (&lt;=744)" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="9" name="Class" dataDxfId="40">
       <calculatedColumnFormula>MID(VMs[[#This Row],[Admin Name]], 4, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Software SKU" dataDxfId="40"/>
-    <tableColumn id="10" name="Secondary SKU" dataDxfId="39"/>
-    <tableColumn id="29" name="SubnetID" dataDxfId="38"/>
-    <tableColumn id="4" name="Physical Location" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="7" name="Software SKU" dataDxfId="39"/>
+    <tableColumn id="10" name="Secondary SKU" dataDxfId="38"/>
+    <tableColumn id="29" name="SubnetID" dataDxfId="37"/>
+    <tableColumn id="4" name="Physical Location" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets!A14:U107, 8, FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="SiteID (Computed)" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="21" name="SiteID (Computed)" dataDxfId="34" totalsRowDxfId="33">
       <calculatedColumnFormula>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[],21, FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="SubID (Computed)" dataDxfId="33"/>
-    <tableColumn id="34" name="SubscriptionName (Computed)" dataDxfId="32">
+    <tableColumn id="32" name="SubID (Computed)" dataDxfId="32"/>
+    <tableColumn id="34" name="SubscriptionName (Computed)" dataDxfId="31">
       <calculatedColumnFormula>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[],14, FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Subnet Number(Computed)" dataDxfId="31">
+    <tableColumn id="17" name="Subnet Number(Computed)" dataDxfId="30">
       <calculatedColumnFormula>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[],  2, FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="Subnet Name (Computed)" dataDxfId="30">
+    <tableColumn id="30" name="Subnet Name (Computed)" dataDxfId="29">
       <calculatedColumnFormula>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[], 4, FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="IP Subnet (Computed)" dataDxfId="29">
+    <tableColumn id="31" name="IP Subnet (Computed)" dataDxfId="28">
       <calculatedColumnFormula>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[], 12, FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="IP Address" dataDxfId="28"/>
-    <tableColumn id="28" name="ReservedIP/InternalLB" dataDxfId="27"/>
-    <tableColumn id="13" name="Service Model" dataDxfId="26"/>
-    <tableColumn id="11" name="Phase" dataDxfId="25"/>
-    <tableColumn id="15" name="ServiceName (Computed)" dataDxfId="24">
+    <tableColumn id="5" name="IP Address" dataDxfId="27"/>
+    <tableColumn id="28" name="ReservedIP/InternalLB" dataDxfId="26"/>
+    <tableColumn id="13" name="Service Model" dataDxfId="25"/>
+    <tableColumn id="11" name="Phase" dataDxfId="24"/>
+    <tableColumn id="15" name="ServiceName (Computed)" dataDxfId="23">
       <calculatedColumnFormula>LOWER(VMs[[#This Row],[SiteID (Computed)]] &amp;VMs[[#This Row],[Class]]&amp; VMs[[#This Row],[Function]]&amp;VMs[[#This Row],[Service Name '#]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="Service Name #" dataDxfId="23"/>
-    <tableColumn id="8" name="Instance" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="24" name="Mem (computed)" dataDxfId="20">
+    <tableColumn id="22" name="Service Name #" dataDxfId="22"/>
+    <tableColumn id="8" name="Instance" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="24" name="Mem (computed)" dataDxfId="19">
       <calculatedColumnFormula>VLOOKUP(VMs[[#This Row],[RoleSize]], AzureID, 5, TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="Cores (computed)" dataDxfId="19">
+    <tableColumn id="25" name="Cores (computed)" dataDxfId="18">
       <calculatedColumnFormula>VLOOKUP(VMs[[#This Row],[RoleSize]], AzureSpecs[],6, FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Admin Name" dataDxfId="18"/>
-    <tableColumn id="26" name="Domain Joined" dataDxfId="17"/>
+    <tableColumn id="2" name="Admin Name" dataDxfId="17"/>
+    <tableColumn id="26" name="Domain Joined" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7838,13 +7867,13 @@
   <tableColumns count="10">
     <tableColumn id="1" name="AzureID"/>
     <tableColumn id="6" name="Instance Name"/>
-    <tableColumn id="7" name="SLA" dataDxfId="14" dataCellStyle="Percent"/>
-    <tableColumn id="8" name="MACPrice" dataDxfId="13" dataCellStyle="Currency"/>
-    <tableColumn id="2" name="MAGPrice" dataDxfId="12" dataCellStyle="Currency"/>
-    <tableColumn id="5" name="Cores" dataDxfId="11" dataCellStyle="Comma"/>
-    <tableColumn id="3" name="RAM (GB)" dataDxfId="10" dataCellStyle="Comma"/>
-    <tableColumn id="10" name="Storage" dataDxfId="9" dataCellStyle="Comma"/>
-    <tableColumn id="4" name="Price Difference" dataDxfId="8" dataCellStyle="Percent">
+    <tableColumn id="7" name="SLA" dataDxfId="13" dataCellStyle="Percent"/>
+    <tableColumn id="8" name="MACPrice" dataDxfId="12" dataCellStyle="Currency"/>
+    <tableColumn id="2" name="MAGPrice" dataDxfId="11" dataCellStyle="Currency"/>
+    <tableColumn id="5" name="Cores" dataDxfId="10" dataCellStyle="Comma"/>
+    <tableColumn id="3" name="RAM (GB)" dataDxfId="9" dataCellStyle="Comma"/>
+    <tableColumn id="10" name="Storage" dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="4" name="Price Difference" dataDxfId="7" dataCellStyle="Percent">
       <calculatedColumnFormula>1-AzureSpecs[[#This Row],[MACPrice]]/AzureSpecs[[#This Row],[MAGPrice]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="Link"/>
@@ -7893,16 +7922,16 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:N29" totalsRowShown="0" headerRowBorderDxfId="7" headerRowCellStyle="Heading 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:N29" totalsRowShown="0" headerRowBorderDxfId="6" headerRowCellStyle="Heading 1">
   <autoFilter ref="A1:N29"/>
   <tableColumns count="14">
     <tableColumn id="1" name="Risk ID"/>
-    <tableColumn id="4" name="Title" dataDxfId="6"/>
-    <tableColumn id="5" name="Description" dataDxfId="5"/>
-    <tableColumn id="6" name="Mitigation Plan" dataDxfId="4"/>
-    <tableColumn id="7" name="Contingency Plan" dataDxfId="3"/>
-    <tableColumn id="8" name="Trigger (date or custom)" dataDxfId="2"/>
-    <tableColumn id="9" name="Trigger Description" dataDxfId="1"/>
+    <tableColumn id="4" name="Title" dataDxfId="5"/>
+    <tableColumn id="5" name="Description" dataDxfId="4"/>
+    <tableColumn id="6" name="Mitigation Plan" dataDxfId="3"/>
+    <tableColumn id="7" name="Contingency Plan" dataDxfId="2"/>
+    <tableColumn id="8" name="Trigger (date or custom)" dataDxfId="1"/>
+    <tableColumn id="9" name="Trigger Description" dataDxfId="0"/>
     <tableColumn id="10" name="Impact (Magnitude)"/>
     <tableColumn id="11" name="Probability (%)"/>
     <tableColumn id="12" name="Cost"/>
@@ -8014,7 +8043,12 @@
   <autoFilter ref="A1:V104">
     <filterColumn colId="4">
       <filters>
-        <filter val="Srvcs"/>
+        <filter val="CJIS"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Gateway"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -8462,7 +8496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -8476,12 +8510,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>591</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
       <c r="I1" t="s">
         <v>556</v>
       </c>
@@ -8657,7 +8691,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="73" t="s">
         <v>577</v>
       </c>
       <c r="D13" s="41"/>
@@ -8683,12 +8717,12 @@
       <c r="D17" s="41"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="78" t="s">
         <v>766</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
     </row>
     <row r="21" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="64"/>
@@ -13957,7 +13991,7 @@
       </c>
       <c r="P9" s="16" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets!A21:U114, 8, FALSE)</f>
-        <v>St1</v>
+        <v>va</v>
       </c>
       <c r="Q9" s="26" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[],21, FALSE)</f>
@@ -13977,11 +14011,11 @@
       </c>
       <c r="U9" s="50" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[], 4, FALSE)</f>
-        <v>DMZ_150_dept_prod_St1</v>
+        <v>DMZ_150_dept_prod_va</v>
       </c>
       <c r="V9" s="15" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[], 12, FALSE)</f>
-        <v>va.10.8.0</v>
+        <v>10.130.8.0</v>
       </c>
       <c r="W9" s="16">
         <v>11</v>
@@ -14057,7 +14091,7 @@
       </c>
       <c r="P10" s="16" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets!A22:U115, 8, FALSE)</f>
-        <v>St1</v>
+        <v>va</v>
       </c>
       <c r="Q10" s="26" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[],21, FALSE)</f>
@@ -14077,11 +14111,11 @@
       </c>
       <c r="U10" s="50" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[], 4, FALSE)</f>
-        <v>DMZ_150_dept_prod_St1</v>
+        <v>DMZ_150_dept_prod_va</v>
       </c>
       <c r="V10" s="15" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[], 12, FALSE)</f>
-        <v>va.10.8.0</v>
+        <v>10.130.8.0</v>
       </c>
       <c r="W10" s="16">
         <v>12</v>
@@ -14157,7 +14191,7 @@
       </c>
       <c r="P11" s="16" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets!A23:U116, 8, FALSE)</f>
-        <v>St1</v>
+        <v>va</v>
       </c>
       <c r="Q11" s="26" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[],21, FALSE)</f>
@@ -14177,11 +14211,11 @@
       </c>
       <c r="U11" s="50" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[], 4, FALSE)</f>
-        <v>App_120_dept_prod_St1</v>
+        <v>App_120_dept_prod_va</v>
       </c>
       <c r="V11" s="15" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[], 12, FALSE)</f>
-        <v>va.10.4.0</v>
+        <v>10.130.4.0</v>
       </c>
       <c r="W11" s="15" t="s">
         <v>88</v>
@@ -14251,7 +14285,7 @@
       </c>
       <c r="P12" s="16" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets!A24:U117, 8, FALSE)</f>
-        <v>St1</v>
+        <v>va</v>
       </c>
       <c r="Q12" s="26" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[],21, FALSE)</f>
@@ -14271,11 +14305,11 @@
       </c>
       <c r="U12" s="50" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[], 4, FALSE)</f>
-        <v>App_120_dept_prod_St1</v>
+        <v>App_120_dept_prod_va</v>
       </c>
       <c r="V12" s="15" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[], 12, FALSE)</f>
-        <v>va.10.4.0</v>
+        <v>10.130.4.0</v>
       </c>
       <c r="W12" s="15" t="s">
         <v>88</v>
@@ -14345,7 +14379,7 @@
       </c>
       <c r="P13" s="16" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets!A25:U118, 8, FALSE)</f>
-        <v>St1</v>
+        <v>va</v>
       </c>
       <c r="Q13" s="26" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[],21, FALSE)</f>
@@ -14365,11 +14399,11 @@
       </c>
       <c r="U13" s="50" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[], 4, FALSE)</f>
-        <v>Users_Tier2_162_dept_prod_St1</v>
+        <v>Users_Tier2_162_dept_prod_va</v>
       </c>
       <c r="V13" s="15" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[], 12, FALSE)</f>
-        <v>va.10.11.0</v>
+        <v>10.130.11.0</v>
       </c>
       <c r="W13" s="15" t="s">
         <v>88</v>
@@ -14442,7 +14476,7 @@
       </c>
       <c r="P14" s="16" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets!A26:U119, 8, FALSE)</f>
-        <v>St1</v>
+        <v>va</v>
       </c>
       <c r="Q14" s="26" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[],21, FALSE)</f>
@@ -14462,11 +14496,11 @@
       </c>
       <c r="U14" s="50" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[], 4, FALSE)</f>
-        <v>Users_Tier2_162_dept_prod_St1</v>
+        <v>Users_Tier2_162_dept_prod_va</v>
       </c>
       <c r="V14" s="15" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[], 12, FALSE)</f>
-        <v>va.10.11.0</v>
+        <v>10.130.11.0</v>
       </c>
       <c r="W14" s="15" t="s">
         <v>88</v>
@@ -14536,7 +14570,7 @@
       </c>
       <c r="P15" s="16" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets!A27:U120, 8, FALSE)</f>
-        <v>St1</v>
+        <v>va</v>
       </c>
       <c r="Q15" s="39" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[#Data],21, FALSE)</f>
@@ -14556,11 +14590,11 @@
       </c>
       <c r="U15" s="50" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[], 4, FALSE)</f>
-        <v>Database_130_dept_prod_St1</v>
+        <v>Database_130_dept_prod_va</v>
       </c>
       <c r="V15" s="15" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[], 12, FALSE)</f>
-        <v>va.10.6.0</v>
+        <v>10.130.6.0</v>
       </c>
       <c r="W15" s="15" t="s">
         <v>88</v>
@@ -14630,7 +14664,7 @@
       </c>
       <c r="P16" s="16" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets!A28:U121, 8, FALSE)</f>
-        <v>St1</v>
+        <v>va</v>
       </c>
       <c r="Q16" s="39" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[#Data],21, FALSE)</f>
@@ -14650,11 +14684,11 @@
       </c>
       <c r="U16" s="50" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[], 4, FALSE)</f>
-        <v>Database_130_dept_prod_St1</v>
+        <v>Database_130_dept_prod_va</v>
       </c>
       <c r="V16" s="15" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[], 12, FALSE)</f>
-        <v>va.10.6.0</v>
+        <v>10.130.6.0</v>
       </c>
       <c r="W16" s="15" t="s">
         <v>88</v>
@@ -14720,11 +14754,11 @@
       <c r="O17" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="P17" s="70" t="str">
+      <c r="P17" s="69" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets!A29:U122, 8, FALSE)</f>
         <v>va</v>
       </c>
-      <c r="Q17" s="71" t="str">
+      <c r="Q17" s="70" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[],21, FALSE)</f>
         <v>SERVICES</v>
       </c>
@@ -14732,7 +14766,7 @@
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[#Data],22, FALSE)</f>
         <v>sub04</v>
       </c>
-      <c r="S17" s="72" t="str">
+      <c r="S17" s="71" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[],14, FALSE)</f>
         <v>mag_dept_managed_services</v>
       </c>
@@ -14740,7 +14774,7 @@
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[],  2, FALSE)</f>
         <v>600</v>
       </c>
-      <c r="U17" s="73" t="str">
+      <c r="U17" s="72" t="str">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[], 4, FALSE)</f>
         <v>Services_600_dept_Srvcs_va</v>
       </c>
@@ -14801,16 +14835,16 @@
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
-      <c r="P18" s="70" t="e">
+      <c r="P18" s="69" t="e">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets!A31:U123, 8, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q18" s="71" t="e">
+      <c r="Q18" s="70" t="e">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[],21, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="R18" s="24"/>
-      <c r="S18" s="72" t="e">
+      <c r="S18" s="71" t="e">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[],14, FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -14818,7 +14852,7 @@
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[],  2, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="U18" s="73" t="e">
+      <c r="U18" s="72" t="e">
         <f>VLOOKUP(VMs[[#This Row],[SubnetID]], Subnets[], 4, FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -14869,7 +14903,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E31:E1048576 E19 C1:C18">
-    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="42"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="90" r:id="rId1"/>
@@ -14898,15 +14932,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="F1" s="80" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="F1" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="G1" s="80"/>
+      <c r="G1" s="79"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="28" t="s">
@@ -15060,10 +15094,10 @@
       <c r="B2" t="s">
         <v>1029</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="I2" s="77" t="e">
+      <c r="C2" s="74"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="I2" s="76" t="e">
         <f>1-AzureSpecs[[#This Row],[MACPrice]]/AzureSpecs[[#This Row],[MAGPrice]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -15076,10 +15110,10 @@
       <c r="B3" t="s">
         <v>1030</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="I3" s="77" t="e">
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="I3" s="76" t="e">
         <f>1-AzureSpecs[[#This Row],[MACPrice]]/AzureSpecs[[#This Row],[MAGPrice]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -15092,10 +15126,10 @@
       <c r="B4" t="s">
         <v>1031</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="I4" s="77" t="e">
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="I4" s="76" t="e">
         <f>1-AzureSpecs[[#This Row],[MACPrice]]/AzureSpecs[[#This Row],[MAGPrice]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -15108,10 +15142,10 @@
       <c r="B5" t="s">
         <v>1032</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="I5" s="77" t="e">
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="I5" s="76" t="e">
         <f>1-AzureSpecs[[#This Row],[MACPrice]]/AzureSpecs[[#This Row],[MAGPrice]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -15124,10 +15158,10 @@
       <c r="B6" t="s">
         <v>1033</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="I6" s="77" t="e">
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="I6" s="76" t="e">
         <f>1-AzureSpecs[[#This Row],[MACPrice]]/AzureSpecs[[#This Row],[MAGPrice]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -15140,10 +15174,10 @@
       <c r="B7" t="s">
         <v>1034</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="I7" s="77" t="e">
+      <c r="C7" s="74"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="I7" s="76" t="e">
         <f>1-AzureSpecs[[#This Row],[MACPrice]]/AzureSpecs[[#This Row],[MAGPrice]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -15156,10 +15190,10 @@
       <c r="B8" t="s">
         <v>1035</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="I8" s="77" t="e">
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="I8" s="76" t="e">
         <f>1-AzureSpecs[[#This Row],[MACPrice]]/AzureSpecs[[#This Row],[MAGPrice]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -15172,10 +15206,10 @@
       <c r="B9" t="s">
         <v>1036</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="I9" s="77" t="e">
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="I9" s="76" t="e">
         <f>1-AzureSpecs[[#This Row],[MACPrice]]/AzureSpecs[[#This Row],[MAGPrice]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -15188,10 +15222,10 @@
       <c r="B10" t="s">
         <v>1037</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="I10" s="77" t="e">
+      <c r="C10" s="74"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="I10" s="76" t="e">
         <f>1-AzureSpecs[[#This Row],[MACPrice]]/AzureSpecs[[#This Row],[MAGPrice]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -15204,10 +15238,10 @@
       <c r="B11" t="s">
         <v>1038</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="I11" s="77" t="e">
+      <c r="C11" s="74"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="I11" s="76" t="e">
         <f>1-AzureSpecs[[#This Row],[MACPrice]]/AzureSpecs[[#This Row],[MAGPrice]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -23566,8 +23600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V104"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L81" sqref="L81"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23697,7 +23731,7 @@
       </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L34" si="0">O2&amp;"."&amp;P2&amp;"."&amp;Q2&amp;"."&amp;R2</f>
-        <v>va.10.16.0</v>
+        <v>10.130.16.0</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>78</v>
@@ -23706,14 +23740,14 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_cjis</v>
       </c>
-      <c r="O2" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P2">
+      <c r="O2">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
       </c>
+      <c r="P2">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
+      </c>
       <c r="Q2">
         <v>16</v>
       </c>
@@ -23722,7 +23756,7 @@
       </c>
       <c r="S2" t="str">
         <f>O2&amp;"."&amp;P2&amp;"."&amp;Q2&amp;"."&amp;R2</f>
-        <v>va.10.16.0</v>
+        <v>10.130.16.0</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>383</v>
@@ -23774,7 +23808,7 @@
       </c>
       <c r="L3" t="str">
         <f t="shared" si="0"/>
-        <v>va.10.18.0</v>
+        <v>10.130.18.0</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>78</v>
@@ -23783,13 +23817,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_cjis</v>
       </c>
-      <c r="O3" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P3">
+      <c r="O3">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P3">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q3">
         <v>18</v>
@@ -23844,7 +23878,7 @@
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>va.10.20.0</v>
+        <v>10.130.20.0</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>78</v>
@@ -23853,13 +23887,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_cjis</v>
       </c>
-      <c r="O4" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P4">
+      <c r="O4">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P4">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q4">
         <v>20</v>
@@ -23914,7 +23948,7 @@
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>va.10.22.0</v>
+        <v>10.130.22.0</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>78</v>
@@ -23923,13 +23957,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_cjis</v>
       </c>
-      <c r="O5" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P5">
+      <c r="O5">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P5">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q5">
         <v>22</v>
@@ -23984,7 +24018,7 @@
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v>va.10.26.0</v>
+        <v>10.130.26.0</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>390</v>
@@ -23993,13 +24027,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_cjis</v>
       </c>
-      <c r="O6" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P6">
+      <c r="O6">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P6">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q6">
         <v>26</v>
@@ -24054,7 +24088,7 @@
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>va.10.26.128</v>
+        <v>10.130.26.128</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>390</v>
@@ -24063,13 +24097,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_cjis</v>
       </c>
-      <c r="O7" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P7">
+      <c r="O7">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P7">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q7">
         <v>26</v>
@@ -24124,7 +24158,7 @@
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v>va.10.26.0</v>
+        <v>10.130.26.0</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>489</v>
@@ -24133,13 +24167,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_cjis</v>
       </c>
-      <c r="O8" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P8">
+      <c r="O8">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P8">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q8">
         <v>26</v>
@@ -24194,7 +24228,7 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>va.10.28.0</v>
+        <v>10.130.28.0</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>489</v>
@@ -24203,13 +24237,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_cjis</v>
       </c>
-      <c r="O9" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P9">
+      <c r="O9">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P9">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q9">
         <v>28</v>
@@ -24264,7 +24298,7 @@
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>va.10.30.0</v>
+        <v>10.130.30.0</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>78</v>
@@ -24273,13 +24307,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_cjis</v>
       </c>
-      <c r="O10" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P10">
+      <c r="O10">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P10">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q10">
         <v>30</v>
@@ -24296,7 +24330,7 @@
         <v>sub01</v>
       </c>
     </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>409</v>
       </c>
@@ -24334,7 +24368,7 @@
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>va.10.31.248</v>
+        <v>10.130.31.248</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>399</v>
@@ -24343,14 +24377,14 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_cjis</v>
       </c>
-      <c r="O11" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P11">
+      <c r="O11">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
       </c>
+      <c r="P11">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
+      </c>
       <c r="Q11">
         <v>31</v>
       </c>
@@ -24359,7 +24393,7 @@
       </c>
       <c r="S11" t="str">
         <f>O11&amp;"."&amp;P11&amp;"."&amp;Q11&amp;"."&amp;R11</f>
-        <v>va.10.31.248</v>
+        <v>10.130.31.248</v>
       </c>
       <c r="T11" s="9" t="s">
         <v>399</v>
@@ -24940,7 +24974,7 @@
         <v>sub01</v>
       </c>
     </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>418</v>
       </c>
@@ -25029,7 +25063,7 @@
       </c>
       <c r="D21" t="str">
         <f>I21&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E21&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Web_310_dept_Test_St1</v>
+        <v>Web_310_dept_Test_va</v>
       </c>
       <c r="E21" t="s">
         <v>81</v>
@@ -25043,8 +25077,8 @@
         <v>Managed</v>
       </c>
       <c r="H21" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I21" t="s">
         <v>73</v>
@@ -25054,7 +25088,7 @@
       </c>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
-        <v>va.10.32.0</v>
+        <v>10.130.32.0</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>78</v>
@@ -25063,14 +25097,14 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O21" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P21">
+      <c r="O21">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
       </c>
+      <c r="P21">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
+      </c>
       <c r="Q21">
         <v>32</v>
       </c>
@@ -25079,7 +25113,7 @@
       </c>
       <c r="S21" t="str">
         <f>O21&amp;"."&amp;P21&amp;"."&amp;Q21&amp;"."&amp;R21</f>
-        <v>va.10.32.0</v>
+        <v>10.130.32.0</v>
       </c>
       <c r="T21" s="9" t="s">
         <v>383</v>
@@ -25105,7 +25139,7 @@
       </c>
       <c r="D22" t="str">
         <f>I22&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E22&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>App_320_dept_Test_St1</v>
+        <v>App_320_dept_Test_va</v>
       </c>
       <c r="E22" t="s">
         <v>81</v>
@@ -25119,8 +25153,8 @@
         <v>Managed</v>
       </c>
       <c r="H22" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I22" t="s">
         <v>74</v>
@@ -25130,7 +25164,7 @@
       </c>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
-        <v>va.10.33.0</v>
+        <v>10.130.33.0</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>78</v>
@@ -25139,13 +25173,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O22" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P22">
+      <c r="O22">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P22">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q22">
         <v>33</v>
@@ -25174,7 +25208,7 @@
       </c>
       <c r="D23" t="str">
         <f>I23&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E23&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Database_330_dept_Test_St1</v>
+        <v>Database_330_dept_Test_va</v>
       </c>
       <c r="E23" t="s">
         <v>81</v>
@@ -25188,8 +25222,8 @@
         <v>Managed</v>
       </c>
       <c r="H23" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I23" t="s">
         <v>75</v>
@@ -25199,7 +25233,7 @@
       </c>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
-        <v>va.10.34.0</v>
+        <v>10.130.34.0</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>78</v>
@@ -25208,13 +25242,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O23" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P23">
+      <c r="O23">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P23">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q23">
         <v>34</v>
@@ -25243,7 +25277,7 @@
       </c>
       <c r="D24" t="str">
         <f>I24&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E24&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>DMZ_350_dept_Test_St1</v>
+        <v>DMZ_350_dept_Test_va</v>
       </c>
       <c r="E24" t="s">
         <v>81</v>
@@ -25257,8 +25291,8 @@
         <v>Managed</v>
       </c>
       <c r="H24" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I24" t="s">
         <v>76</v>
@@ -25268,7 +25302,7 @@
       </c>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
-        <v>va.10.35.0</v>
+        <v>10.130.35.0</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>78</v>
@@ -25277,13 +25311,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O24" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P24">
+      <c r="O24">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P24">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q24">
         <v>35</v>
@@ -25312,7 +25346,7 @@
       </c>
       <c r="D25" t="str">
         <f>I25&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E25&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>User_Tier0_360_dept_Test_St1</v>
+        <v>User_Tier0_360_dept_Test_va</v>
       </c>
       <c r="E25" t="s">
         <v>81</v>
@@ -25326,8 +25360,8 @@
         <v>Managed</v>
       </c>
       <c r="H25" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I25" t="s">
         <v>1003</v>
@@ -25337,7 +25371,7 @@
       </c>
       <c r="L25" t="str">
         <f t="shared" si="0"/>
-        <v>va.10.36.0</v>
+        <v>10.130.36.0</v>
       </c>
       <c r="M25" s="9" t="s">
         <v>390</v>
@@ -25346,13 +25380,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O25" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P25">
+      <c r="O25">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P25">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q25">
         <v>36</v>
@@ -25381,7 +25415,7 @@
       </c>
       <c r="D26" t="str">
         <f>I26&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E26&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Users_Tier1_361_dept_Test_St1</v>
+        <v>Users_Tier1_361_dept_Test_va</v>
       </c>
       <c r="E26" t="s">
         <v>81</v>
@@ -25395,8 +25429,8 @@
         <v>Managed</v>
       </c>
       <c r="H26" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I26" t="s">
         <v>1001</v>
@@ -25406,7 +25440,7 @@
       </c>
       <c r="L26" t="str">
         <f t="shared" si="0"/>
-        <v>va.10.36.128</v>
+        <v>10.130.36.128</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>390</v>
@@ -25415,13 +25449,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O26" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P26">
+      <c r="O26">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P26">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q26">
         <v>36</v>
@@ -25450,7 +25484,7 @@
       </c>
       <c r="D27" t="str">
         <f>I27&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E27&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Users_Tier2_362_dept_Test_St1</v>
+        <v>Users_Tier2_362_dept_Test_va</v>
       </c>
       <c r="E27" t="s">
         <v>81</v>
@@ -25464,8 +25498,8 @@
         <v>Managed</v>
       </c>
       <c r="H27" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I27" t="s">
         <v>1002</v>
@@ -25475,7 +25509,7 @@
       </c>
       <c r="L27" t="str">
         <f t="shared" si="0"/>
-        <v>va.10.37.0</v>
+        <v>10.130.37.0</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>390</v>
@@ -25484,13 +25518,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O27" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P27">
+      <c r="O27">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P27">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q27">
         <v>37</v>
@@ -25519,7 +25553,7 @@
       </c>
       <c r="D28" t="str">
         <f>I28&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E28&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>User_Tier0_363_dept_Dev_St1</v>
+        <v>User_Tier0_363_dept_Dev_va</v>
       </c>
       <c r="E28" t="s">
         <v>82</v>
@@ -25533,8 +25567,8 @@
         <v>Managed</v>
       </c>
       <c r="H28" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I28" t="s">
         <v>1003</v>
@@ -25544,7 +25578,7 @@
       </c>
       <c r="L28" t="str">
         <f t="shared" si="0"/>
-        <v>va.10.37.128</v>
+        <v>10.130.37.128</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>390</v>
@@ -25553,13 +25587,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O28" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P28">
+      <c r="O28">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P28">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q28">
         <v>37</v>
@@ -25588,7 +25622,7 @@
       </c>
       <c r="D29" t="str">
         <f>I29&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E29&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>User_Tier1_364_dept_Dev_St1</v>
+        <v>User_Tier1_364_dept_Dev_va</v>
       </c>
       <c r="E29" t="s">
         <v>82</v>
@@ -25602,8 +25636,8 @@
         <v>Managed</v>
       </c>
       <c r="H29" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I29" t="s">
         <v>1009</v>
@@ -25613,7 +25647,7 @@
       </c>
       <c r="L29" t="str">
         <f t="shared" si="0"/>
-        <v>va.10.38.0</v>
+        <v>10.130.38.0</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>390</v>
@@ -25622,13 +25656,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O29" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P29">
+      <c r="O29">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P29">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q29">
         <v>38</v>
@@ -25655,7 +25689,7 @@
       </c>
       <c r="D30" s="54" t="str">
         <f>I30&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E30&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>User_Tier2_364_dept_Dev_St1</v>
+        <v>User_Tier2_364_dept_Dev_va</v>
       </c>
       <c r="E30" s="54" t="s">
         <v>82</v>
@@ -25668,9 +25702,9 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All], 9, FALSE)</f>
         <v>Managed</v>
       </c>
-      <c r="H30" s="68" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+      <c r="H30" t="str">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I30" t="s">
         <v>1012</v>
@@ -25681,7 +25715,7 @@
       </c>
       <c r="L30" t="str">
         <f t="shared" si="0"/>
-        <v>va.10.38.128</v>
+        <v>10.130.38.128</v>
       </c>
       <c r="M30" s="9" t="s">
         <v>390</v>
@@ -25690,13 +25724,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O30" s="54" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P30" s="54">
+      <c r="O30">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P30">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q30" s="54">
         <v>38</v>
@@ -25727,7 +25761,7 @@
       </c>
       <c r="D31" t="str">
         <f>I31&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E31&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Web_410_dept_Dev_St1</v>
+        <v>Web_410_dept_Dev_va</v>
       </c>
       <c r="E31" t="s">
         <v>82</v>
@@ -25741,8 +25775,8 @@
         <v>Managed</v>
       </c>
       <c r="H31" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I31" t="s">
         <v>73</v>
@@ -25752,7 +25786,7 @@
       </c>
       <c r="L31" t="str">
         <f t="shared" si="0"/>
-        <v>va.10.40.0</v>
+        <v>10.130.40.0</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>78</v>
@@ -25761,13 +25795,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O31" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P31">
+      <c r="O31">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P31">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q31">
         <v>40</v>
@@ -25796,7 +25830,7 @@
       </c>
       <c r="D32" t="str">
         <f>I32&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E32&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>App_420_dept_Dev_St1</v>
+        <v>App_420_dept_Dev_va</v>
       </c>
       <c r="E32" t="s">
         <v>82</v>
@@ -25810,8 +25844,8 @@
         <v>Managed</v>
       </c>
       <c r="H32" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I32" t="s">
         <v>74</v>
@@ -25821,7 +25855,7 @@
       </c>
       <c r="L32" t="str">
         <f t="shared" si="0"/>
-        <v>va.10.41.0</v>
+        <v>10.130.41.0</v>
       </c>
       <c r="M32" s="9" t="s">
         <v>78</v>
@@ -25830,13 +25864,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O32" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P32">
+      <c r="O32">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P32">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q32">
         <v>41</v>
@@ -25865,7 +25899,7 @@
       </c>
       <c r="D33" t="str">
         <f>I33&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E33&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Database_430_dept_Dev_St1</v>
+        <v>Database_430_dept_Dev_va</v>
       </c>
       <c r="E33" t="s">
         <v>82</v>
@@ -25879,8 +25913,8 @@
         <v>Managed</v>
       </c>
       <c r="H33" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I33" t="s">
         <v>75</v>
@@ -25890,7 +25924,7 @@
       </c>
       <c r="L33" t="str">
         <f t="shared" si="0"/>
-        <v>va.10.42.0</v>
+        <v>10.130.42.0</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>78</v>
@@ -25899,13 +25933,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O33" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P33">
+      <c r="O33">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P33">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q33">
         <v>42</v>
@@ -25934,7 +25968,7 @@
       </c>
       <c r="D34" t="str">
         <f>I34&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E34&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>DMZ_450_dept_Dev_St1</v>
+        <v>DMZ_450_dept_Dev_va</v>
       </c>
       <c r="E34" t="s">
         <v>82</v>
@@ -25948,8 +25982,8 @@
         <v>Managed</v>
       </c>
       <c r="H34" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I34" t="s">
         <v>76</v>
@@ -25959,7 +25993,7 @@
       </c>
       <c r="L34" t="str">
         <f t="shared" si="0"/>
-        <v>va.10.43.0</v>
+        <v>10.130.43.0</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>78</v>
@@ -25968,13 +26002,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O34" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P34">
+      <c r="O34">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P34">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q34">
         <v>43</v>
@@ -26003,7 +26037,7 @@
       </c>
       <c r="D35" t="str">
         <f>I35&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E35&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Future_470_dept_PreProd_St1</v>
+        <v>Future_470_dept_PreProd_va</v>
       </c>
       <c r="E35" t="s">
         <v>382</v>
@@ -26017,8 +26051,8 @@
         <v>Managed</v>
       </c>
       <c r="H35" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I35" t="s">
         <v>300</v>
@@ -26028,7 +26062,7 @@
       </c>
       <c r="L35" t="str">
         <f t="shared" ref="L35:L67" si="1">O35&amp;"."&amp;P35&amp;"."&amp;Q35&amp;"."&amp;R35</f>
-        <v>va.10.44.0</v>
+        <v>10.130.44.0</v>
       </c>
       <c r="M35" s="9" t="s">
         <v>489</v>
@@ -26037,13 +26071,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O35" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P35">
+      <c r="O35">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P35">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q35">
         <v>44</v>
@@ -26072,7 +26106,7 @@
       </c>
       <c r="D36" t="str">
         <f>I36&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E36&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Future_470_dept_PreProd_St1</v>
+        <v>Future_470_dept_PreProd_va</v>
       </c>
       <c r="E36" t="s">
         <v>382</v>
@@ -26086,8 +26120,8 @@
         <v>Managed</v>
       </c>
       <c r="H36" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I36" t="s">
         <v>300</v>
@@ -26097,7 +26131,7 @@
       </c>
       <c r="L36" t="str">
         <f t="shared" si="1"/>
-        <v>va.10.46.0</v>
+        <v>10.130.46.0</v>
       </c>
       <c r="M36" s="9" t="s">
         <v>78</v>
@@ -26106,13 +26140,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O36" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P36">
+      <c r="O36">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P36">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q36">
         <v>46</v>
@@ -26141,7 +26175,7 @@
       </c>
       <c r="D37" t="str">
         <f>I37&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E37&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Gateway_499_dept_PreProd_St1</v>
+        <v>Gateway_499_dept_PreProd_va</v>
       </c>
       <c r="E37" t="s">
         <v>382</v>
@@ -26155,8 +26189,8 @@
         <v>Managed</v>
       </c>
       <c r="H37" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I37" t="s">
         <v>501</v>
@@ -26166,7 +26200,7 @@
       </c>
       <c r="L37" t="str">
         <f t="shared" si="1"/>
-        <v>va.10.47.248</v>
+        <v>10.130.47.248</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>399</v>
@@ -26175,14 +26209,14 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O37" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P37">
+      <c r="O37">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
       </c>
+      <c r="P37">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
+      </c>
       <c r="Q37">
         <v>47</v>
       </c>
@@ -26191,7 +26225,7 @@
       </c>
       <c r="S37" t="str">
         <f>O37&amp;"."&amp;P37&amp;"."&amp;Q37&amp;"."&amp;R37</f>
-        <v>va.10.47.248</v>
+        <v>10.130.47.248</v>
       </c>
       <c r="T37" s="9" t="s">
         <v>399</v>
@@ -26217,7 +26251,7 @@
       </c>
       <c r="D38" t="str">
         <f>I38&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E38&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Web_310_dept_Test_St2</v>
+        <v>Web_310_dept_Test_ia</v>
       </c>
       <c r="E38" t="s">
         <v>81</v>
@@ -26231,8 +26265,8 @@
         <v>Managed</v>
       </c>
       <c r="H38" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I38" t="s">
         <v>73</v>
@@ -26242,7 +26276,7 @@
       </c>
       <c r="L38" t="str">
         <f t="shared" si="1"/>
-        <v>ia.10.96.0</v>
+        <v>10.130.96.0</v>
       </c>
       <c r="M38" s="9" t="s">
         <v>78</v>
@@ -26251,14 +26285,14 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O38" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P38">
+      <c r="O38">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
       </c>
+      <c r="P38">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
+      </c>
       <c r="Q38">
         <v>96</v>
       </c>
@@ -26267,7 +26301,7 @@
       </c>
       <c r="S38" t="str">
         <f>O38&amp;"."&amp;P38&amp;"."&amp;Q38&amp;"."&amp;R38</f>
-        <v>ia.10.96.0</v>
+        <v>10.130.96.0</v>
       </c>
       <c r="T38" s="9" t="s">
         <v>383</v>
@@ -26293,7 +26327,7 @@
       </c>
       <c r="D39" t="str">
         <f>I39&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E39&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>App_320_dept_Test_St2</v>
+        <v>App_320_dept_Test_ia</v>
       </c>
       <c r="E39" t="s">
         <v>81</v>
@@ -26307,8 +26341,8 @@
         <v>Managed</v>
       </c>
       <c r="H39" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I39" t="s">
         <v>74</v>
@@ -26318,7 +26352,7 @@
       </c>
       <c r="L39" t="str">
         <f t="shared" si="1"/>
-        <v>ia.10.97.0</v>
+        <v>10.130.97.0</v>
       </c>
       <c r="M39" s="9" t="s">
         <v>78</v>
@@ -26327,13 +26361,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O39" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P39">
+      <c r="O39">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P39">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q39">
         <v>97</v>
@@ -26362,7 +26396,7 @@
       </c>
       <c r="D40" t="str">
         <f>I40&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E40&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Database_330_dept_Test_St2</v>
+        <v>Database_330_dept_Test_ia</v>
       </c>
       <c r="E40" t="s">
         <v>81</v>
@@ -26376,8 +26410,8 @@
         <v>Managed</v>
       </c>
       <c r="H40" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I40" t="s">
         <v>75</v>
@@ -26387,7 +26421,7 @@
       </c>
       <c r="L40" t="str">
         <f t="shared" si="1"/>
-        <v>ia.10.98.0</v>
+        <v>10.130.98.0</v>
       </c>
       <c r="M40" s="9" t="s">
         <v>78</v>
@@ -26396,13 +26430,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O40" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P40">
+      <c r="O40">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P40">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q40">
         <v>98</v>
@@ -26431,7 +26465,7 @@
       </c>
       <c r="D41" t="str">
         <f>I41&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E41&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>DMZ_350_dept_Test_St2</v>
+        <v>DMZ_350_dept_Test_ia</v>
       </c>
       <c r="E41" t="s">
         <v>81</v>
@@ -26445,8 +26479,8 @@
         <v>Managed</v>
       </c>
       <c r="H41" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I41" t="s">
         <v>76</v>
@@ -26456,7 +26490,7 @@
       </c>
       <c r="L41" t="str">
         <f t="shared" si="1"/>
-        <v>ia.10.99.0</v>
+        <v>10.130.99.0</v>
       </c>
       <c r="M41" s="9" t="s">
         <v>78</v>
@@ -26465,13 +26499,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O41" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P41">
+      <c r="O41">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P41">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q41">
         <v>99</v>
@@ -26500,7 +26534,7 @@
       </c>
       <c r="D42" t="str">
         <f>I42&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E42&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Users_Tier0_360_dept_Test_St2</v>
+        <v>Users_Tier0_360_dept_Test_ia</v>
       </c>
       <c r="E42" t="s">
         <v>81</v>
@@ -26514,8 +26548,8 @@
         <v>Managed</v>
       </c>
       <c r="H42" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I42" t="s">
         <v>1011</v>
@@ -26525,7 +26559,7 @@
       </c>
       <c r="L42" t="str">
         <f t="shared" si="1"/>
-        <v>ia.10.100.0</v>
+        <v>10.130.100.0</v>
       </c>
       <c r="M42" s="9" t="s">
         <v>390</v>
@@ -26534,13 +26568,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O42" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P42">
+      <c r="O42">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P42">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q42">
         <v>100</v>
@@ -26569,7 +26603,7 @@
       </c>
       <c r="D43" t="str">
         <f>I43&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E43&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Users_Tier1_361_dept_Test_St2</v>
+        <v>Users_Tier1_361_dept_Test_ia</v>
       </c>
       <c r="E43" t="s">
         <v>81</v>
@@ -26583,8 +26617,8 @@
         <v>Managed</v>
       </c>
       <c r="H43" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I43" t="s">
         <v>1001</v>
@@ -26594,7 +26628,7 @@
       </c>
       <c r="L43" t="str">
         <f t="shared" si="1"/>
-        <v>ia.10.100.128</v>
+        <v>10.130.100.128</v>
       </c>
       <c r="M43" s="9" t="s">
         <v>390</v>
@@ -26603,13 +26637,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O43" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P43">
+      <c r="O43">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P43">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q43">
         <v>100</v>
@@ -26638,7 +26672,7 @@
       </c>
       <c r="D44" t="str">
         <f>I44&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E44&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Users_Tier2_362_dept_Test_St2</v>
+        <v>Users_Tier2_362_dept_Test_ia</v>
       </c>
       <c r="E44" t="s">
         <v>81</v>
@@ -26652,8 +26686,8 @@
         <v>Managed</v>
       </c>
       <c r="H44" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I44" t="s">
         <v>1002</v>
@@ -26663,7 +26697,7 @@
       </c>
       <c r="L44" t="str">
         <f t="shared" si="1"/>
-        <v>ia.10.101.0</v>
+        <v>10.130.101.0</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>390</v>
@@ -26672,13 +26706,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O44" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P44">
+      <c r="O44">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P44">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q44">
         <v>101</v>
@@ -26707,7 +26741,7 @@
       </c>
       <c r="D45" t="str">
         <f>I45&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E45&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Users_Tier0_363_dept_Dev_St2</v>
+        <v>Users_Tier0_363_dept_Dev_ia</v>
       </c>
       <c r="E45" t="s">
         <v>82</v>
@@ -26721,8 +26755,8 @@
         <v>Managed</v>
       </c>
       <c r="H45" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I45" t="s">
         <v>1011</v>
@@ -26732,7 +26766,7 @@
       </c>
       <c r="L45" t="str">
         <f t="shared" si="1"/>
-        <v>ia.10.101.128</v>
+        <v>10.130.101.128</v>
       </c>
       <c r="M45" s="9" t="s">
         <v>390</v>
@@ -26741,13 +26775,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O45" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P45">
+      <c r="O45">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P45">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q45">
         <v>101</v>
@@ -26776,7 +26810,7 @@
       </c>
       <c r="D46" t="str">
         <f>I46&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E46&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Users_Tier1_364_dept_Dev_St2</v>
+        <v>Users_Tier1_364_dept_Dev_ia</v>
       </c>
       <c r="E46" t="s">
         <v>82</v>
@@ -26790,8 +26824,8 @@
         <v>Managed</v>
       </c>
       <c r="H46" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I46" t="s">
         <v>1001</v>
@@ -26801,7 +26835,7 @@
       </c>
       <c r="L46" t="str">
         <f t="shared" si="1"/>
-        <v>ia.10.102.0</v>
+        <v>10.130.102.0</v>
       </c>
       <c r="M46" s="9" t="s">
         <v>390</v>
@@ -26810,13 +26844,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O46" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P46">
+      <c r="O46">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P46">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q46">
         <v>102</v>
@@ -26843,7 +26877,7 @@
       </c>
       <c r="D47" s="54" t="str">
         <f>I47&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E47&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Users_Tier2_365_dept_Dev_St2</v>
+        <v>Users_Tier2_365_dept_Dev_ia</v>
       </c>
       <c r="E47" s="54" t="s">
         <v>82</v>
@@ -26856,9 +26890,9 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All], 9, FALSE)</f>
         <v>Managed</v>
       </c>
-      <c r="H47" s="68" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+      <c r="H47" t="str">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I47" t="s">
         <v>1002</v>
@@ -26869,7 +26903,7 @@
       </c>
       <c r="L47" t="str">
         <f t="shared" si="1"/>
-        <v>ia.10.102.128</v>
+        <v>10.130.102.128</v>
       </c>
       <c r="M47" s="9" t="s">
         <v>390</v>
@@ -26878,13 +26912,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O47" s="54" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P47" s="54">
+      <c r="O47">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P47">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q47" s="54">
         <v>102</v>
@@ -26915,7 +26949,7 @@
       </c>
       <c r="D48" t="str">
         <f>I48&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E48&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Web_410_dept_Dev_St2</v>
+        <v>Web_410_dept_Dev_ia</v>
       </c>
       <c r="E48" t="s">
         <v>82</v>
@@ -26929,8 +26963,8 @@
         <v>Managed</v>
       </c>
       <c r="H48" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I48" t="s">
         <v>73</v>
@@ -26940,7 +26974,7 @@
       </c>
       <c r="L48" t="str">
         <f t="shared" si="1"/>
-        <v>ia.10.103.0</v>
+        <v>10.130.103.0</v>
       </c>
       <c r="M48" s="9" t="s">
         <v>78</v>
@@ -26949,13 +26983,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O48" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P48">
+      <c r="O48">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P48">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q48">
         <v>103</v>
@@ -26984,7 +27018,7 @@
       </c>
       <c r="D49" t="str">
         <f>I49&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E49&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>App_420_dept_Dev_St2</v>
+        <v>App_420_dept_Dev_ia</v>
       </c>
       <c r="E49" t="s">
         <v>82</v>
@@ -26998,8 +27032,8 @@
         <v>Managed</v>
       </c>
       <c r="H49" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I49" t="s">
         <v>74</v>
@@ -27009,7 +27043,7 @@
       </c>
       <c r="L49" t="str">
         <f t="shared" si="1"/>
-        <v>ia.10.104.0</v>
+        <v>10.130.104.0</v>
       </c>
       <c r="M49" s="9" t="s">
         <v>78</v>
@@ -27018,13 +27052,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O49" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P49">
+      <c r="O49">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P49">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q49">
         <v>104</v>
@@ -27053,7 +27087,7 @@
       </c>
       <c r="D50" t="str">
         <f>I50&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E50&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Database_430_dept_Dev_St2</v>
+        <v>Database_430_dept_Dev_ia</v>
       </c>
       <c r="E50" t="s">
         <v>82</v>
@@ -27067,8 +27101,8 @@
         <v>Managed</v>
       </c>
       <c r="H50" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I50" t="s">
         <v>75</v>
@@ -27078,7 +27112,7 @@
       </c>
       <c r="L50" t="str">
         <f t="shared" si="1"/>
-        <v>ia.10.105.0</v>
+        <v>10.130.105.0</v>
       </c>
       <c r="M50" s="9" t="s">
         <v>78</v>
@@ -27087,13 +27121,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O50" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P50">
+      <c r="O50">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P50">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q50">
         <v>105</v>
@@ -27122,7 +27156,7 @@
       </c>
       <c r="D51" t="str">
         <f>I51&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E51&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>DMZ_450_dept_Dev_St2</v>
+        <v>DMZ_450_dept_Dev_ia</v>
       </c>
       <c r="E51" t="s">
         <v>82</v>
@@ -27136,8 +27170,8 @@
         <v>Managed</v>
       </c>
       <c r="H51" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I51" t="s">
         <v>76</v>
@@ -27147,7 +27181,7 @@
       </c>
       <c r="L51" t="str">
         <f t="shared" si="1"/>
-        <v>ia.10.106.0</v>
+        <v>10.130.106.0</v>
       </c>
       <c r="M51" s="9" t="s">
         <v>78</v>
@@ -27156,13 +27190,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O51" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P51">
+      <c r="O51">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P51">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q51">
         <v>106</v>
@@ -27191,7 +27225,7 @@
       </c>
       <c r="D52" t="str">
         <f>I52&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E52&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Future_470_dept_Dev_St2</v>
+        <v>Future_470_dept_Dev_ia</v>
       </c>
       <c r="E52" t="s">
         <v>82</v>
@@ -27205,8 +27239,8 @@
         <v>Managed</v>
       </c>
       <c r="H52" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I52" t="s">
         <v>300</v>
@@ -27216,7 +27250,7 @@
       </c>
       <c r="L52" t="str">
         <f t="shared" si="1"/>
-        <v>ia.10.108.0</v>
+        <v>10.130.108.0</v>
       </c>
       <c r="M52" s="9" t="s">
         <v>489</v>
@@ -27225,13 +27259,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O52" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P52">
+      <c r="O52">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P52">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q52">
         <v>108</v>
@@ -27260,7 +27294,7 @@
       </c>
       <c r="D53" t="str">
         <f>I53&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E53&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Future_470_dept_Dev_St2</v>
+        <v>Future_470_dept_Dev_ia</v>
       </c>
       <c r="E53" t="s">
         <v>82</v>
@@ -27274,8 +27308,8 @@
         <v>Managed</v>
       </c>
       <c r="H53" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I53" t="s">
         <v>300</v>
@@ -27285,7 +27319,7 @@
       </c>
       <c r="L53" t="str">
         <f t="shared" si="1"/>
-        <v>ia.10.110.0</v>
+        <v>10.130.110.0</v>
       </c>
       <c r="M53" s="9" t="s">
         <v>78</v>
@@ -27294,13 +27328,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O53" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P53">
+      <c r="O53">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P53">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q53">
         <v>110</v>
@@ -27329,10 +27363,10 @@
       </c>
       <c r="D54" t="str">
         <f>I54&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E54&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Gateway_499_dept_Test_St2</v>
+        <v>Gateway_499_dept_PreProd_ia</v>
       </c>
       <c r="E54" t="s">
-        <v>81</v>
+        <v>382</v>
       </c>
       <c r="F54" t="str">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All], 8, FALSE)</f>
@@ -27343,8 +27377,8 @@
         <v>Managed</v>
       </c>
       <c r="H54" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I54" t="s">
         <v>501</v>
@@ -27354,7 +27388,7 @@
       </c>
       <c r="L54" t="str">
         <f t="shared" si="1"/>
-        <v>ia.10.111.248</v>
+        <v>10.130.111.248</v>
       </c>
       <c r="M54" s="9" t="s">
         <v>399</v>
@@ -27363,14 +27397,14 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_preprod</v>
       </c>
-      <c r="O54" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P54">
+      <c r="O54">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
       </c>
+      <c r="P54">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
+      </c>
       <c r="Q54">
         <v>111</v>
       </c>
@@ -27379,7 +27413,7 @@
       </c>
       <c r="S54" t="str">
         <f>O54&amp;"."&amp;P54&amp;"."&amp;Q54&amp;"."&amp;R54</f>
-        <v>ia.10.111.248</v>
+        <v>10.130.111.248</v>
       </c>
       <c r="T54" s="9" t="s">
         <v>399</v>
@@ -27405,7 +27439,7 @@
       </c>
       <c r="D55" t="str">
         <f>I55&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E55&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Web_110_dept_prod_St1</v>
+        <v>Web_110_dept_prod_va</v>
       </c>
       <c r="E55" t="s">
         <v>268</v>
@@ -27419,8 +27453,8 @@
         <v>Managed</v>
       </c>
       <c r="H55" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I55" t="s">
         <v>73</v>
@@ -27430,7 +27464,7 @@
       </c>
       <c r="L55" t="str">
         <f t="shared" si="1"/>
-        <v>va.10.2.0</v>
+        <v>10.130.2.0</v>
       </c>
       <c r="M55" s="9" t="s">
         <v>78</v>
@@ -27439,14 +27473,14 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_prod</v>
       </c>
-      <c r="O55" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P55">
+      <c r="O55">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
       </c>
+      <c r="P55">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
+      </c>
       <c r="Q55">
         <v>2</v>
       </c>
@@ -27455,7 +27489,7 @@
       </c>
       <c r="S55" t="str">
         <f>O55&amp;"."&amp;P55&amp;"."&amp;Q55&amp;"."&amp;R55</f>
-        <v>va.10.2.0</v>
+        <v>10.130.2.0</v>
       </c>
       <c r="T55" s="9" t="s">
         <v>383</v>
@@ -27481,7 +27515,7 @@
       </c>
       <c r="D56" t="str">
         <f>I56&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E56&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>App_120_dept_prod_St1</v>
+        <v>App_120_dept_prod_va</v>
       </c>
       <c r="E56" t="s">
         <v>268</v>
@@ -27495,8 +27529,8 @@
         <v>Managed</v>
       </c>
       <c r="H56" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I56" t="s">
         <v>74</v>
@@ -27509,7 +27543,7 @@
       </c>
       <c r="L56" t="str">
         <f t="shared" si="1"/>
-        <v>va.10.4.0</v>
+        <v>10.130.4.0</v>
       </c>
       <c r="M56" s="9" t="s">
         <v>78</v>
@@ -27518,13 +27552,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_prod</v>
       </c>
-      <c r="O56" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P56">
+      <c r="O56">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P56">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -27553,7 +27587,7 @@
       </c>
       <c r="D57" t="str">
         <f>I57&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E57&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Database_130_dept_prod_St1</v>
+        <v>Database_130_dept_prod_va</v>
       </c>
       <c r="E57" t="s">
         <v>268</v>
@@ -27567,8 +27601,8 @@
         <v>Managed</v>
       </c>
       <c r="H57" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I57" t="s">
         <v>75</v>
@@ -27581,7 +27615,7 @@
       </c>
       <c r="L57" t="str">
         <f t="shared" si="1"/>
-        <v>va.10.6.0</v>
+        <v>10.130.6.0</v>
       </c>
       <c r="M57" s="9" t="s">
         <v>78</v>
@@ -27590,13 +27624,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_prod</v>
       </c>
-      <c r="O57" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P57">
+      <c r="O57">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P57">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -27625,7 +27659,7 @@
       </c>
       <c r="D58" t="str">
         <f>I58&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E58&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>DMZ_150_dept_prod_St1</v>
+        <v>DMZ_150_dept_prod_va</v>
       </c>
       <c r="E58" t="s">
         <v>268</v>
@@ -27639,8 +27673,8 @@
         <v>Managed</v>
       </c>
       <c r="H58" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I58" t="s">
         <v>76</v>
@@ -27650,7 +27684,7 @@
       </c>
       <c r="L58" t="str">
         <f t="shared" si="1"/>
-        <v>va.10.8.0</v>
+        <v>10.130.8.0</v>
       </c>
       <c r="M58" s="9" t="s">
         <v>78</v>
@@ -27659,13 +27693,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_prod</v>
       </c>
-      <c r="O58" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P58">
+      <c r="O58">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P58">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -27694,7 +27728,7 @@
       </c>
       <c r="D59" t="str">
         <f>I59&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E59&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>User_Tier0_160_dept_prod_St1</v>
+        <v>User_Tier0_160_dept_prod_va</v>
       </c>
       <c r="E59" t="s">
         <v>268</v>
@@ -27708,8 +27742,8 @@
         <v>Managed</v>
       </c>
       <c r="H59" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I59" t="s">
         <v>1003</v>
@@ -27719,7 +27753,7 @@
       </c>
       <c r="L59" t="str">
         <f t="shared" si="1"/>
-        <v>va.10.10.0</v>
+        <v>10.130.10.0</v>
       </c>
       <c r="M59" s="9" t="s">
         <v>390</v>
@@ -27728,13 +27762,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_prod</v>
       </c>
-      <c r="O59" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P59">
+      <c r="O59">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P59">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q59">
         <v>10</v>
@@ -27763,7 +27797,7 @@
       </c>
       <c r="D60" t="str">
         <f>I60&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E60&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Users_Tier1_161_dept_prod_St1</v>
+        <v>Users_Tier1_161_dept_prod_va</v>
       </c>
       <c r="E60" t="s">
         <v>268</v>
@@ -27777,8 +27811,8 @@
         <v>Managed</v>
       </c>
       <c r="H60" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I60" t="s">
         <v>1001</v>
@@ -27788,7 +27822,7 @@
       </c>
       <c r="L60" t="str">
         <f t="shared" si="1"/>
-        <v>va.10.10.128</v>
+        <v>10.130.10.128</v>
       </c>
       <c r="M60" s="9" t="s">
         <v>390</v>
@@ -27797,13 +27831,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_prod</v>
       </c>
-      <c r="O60" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P60">
+      <c r="O60">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P60">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q60">
         <v>10</v>
@@ -27832,7 +27866,7 @@
       </c>
       <c r="D61" t="str">
         <f>I61&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E61&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Users_Tier2_162_dept_prod_St1</v>
+        <v>Users_Tier2_162_dept_prod_va</v>
       </c>
       <c r="E61" t="s">
         <v>268</v>
@@ -27846,8 +27880,8 @@
         <v>Managed</v>
       </c>
       <c r="H61" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I61" t="s">
         <v>1002</v>
@@ -27857,7 +27891,7 @@
       </c>
       <c r="L61" t="str">
         <f t="shared" si="1"/>
-        <v>va.10.11.0</v>
+        <v>10.130.11.0</v>
       </c>
       <c r="M61" s="9" t="s">
         <v>390</v>
@@ -27866,13 +27900,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_prod</v>
       </c>
-      <c r="O61" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P61">
+      <c r="O61">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P61">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q61">
         <v>11</v>
@@ -27890,6 +27924,9 @@
       </c>
     </row>
     <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>1043</v>
+      </c>
       <c r="B62">
         <v>163</v>
       </c>
@@ -27898,7 +27935,7 @@
       </c>
       <c r="D62" t="str">
         <f>I62&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E62&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Deprecated_163_dept_prod_St1</v>
+        <v>Deprecated_163_dept_prod_va</v>
       </c>
       <c r="E62" t="s">
         <v>268</v>
@@ -27912,8 +27949,8 @@
         <v>Managed</v>
       </c>
       <c r="H62" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I62" t="s">
         <v>1010</v>
@@ -27923,7 +27960,7 @@
       </c>
       <c r="L62" t="str">
         <f t="shared" si="1"/>
-        <v>va.10.11.128</v>
+        <v>10.130.11.128</v>
       </c>
       <c r="M62" s="9" t="s">
         <v>390</v>
@@ -27932,13 +27969,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_prod</v>
       </c>
-      <c r="O62" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P62">
+      <c r="O62">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P62">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q62">
         <v>11</v>
@@ -27956,6 +27993,9 @@
       </c>
     </row>
     <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>1044</v>
+      </c>
       <c r="B63">
         <v>164</v>
       </c>
@@ -27964,7 +28004,7 @@
       </c>
       <c r="D63" t="str">
         <f>I63&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E63&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Deprecated_164_dept_prod_St1</v>
+        <v>Deprecated_164_dept_prod_va</v>
       </c>
       <c r="E63" t="s">
         <v>268</v>
@@ -27978,8 +28018,8 @@
         <v>Managed</v>
       </c>
       <c r="H63" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I63" t="s">
         <v>1010</v>
@@ -27989,7 +28029,7 @@
       </c>
       <c r="L63" t="str">
         <f t="shared" si="1"/>
-        <v>va.10.12.0</v>
+        <v>10.130.12.0</v>
       </c>
       <c r="M63" s="9" t="s">
         <v>390</v>
@@ -27998,13 +28038,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_prod</v>
       </c>
-      <c r="O63" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P63">
+      <c r="O63">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P63">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q63">
         <v>12</v>
@@ -28033,7 +28073,7 @@
       </c>
       <c r="D64" t="str">
         <f>I64&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E64&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Future_170_dept_prod_St1</v>
+        <v>Future_170_dept_prod_va</v>
       </c>
       <c r="E64" t="s">
         <v>268</v>
@@ -28047,8 +28087,8 @@
         <v>Managed</v>
       </c>
       <c r="H64" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I64" t="s">
         <v>300</v>
@@ -28058,7 +28098,7 @@
       </c>
       <c r="L64" t="str">
         <f t="shared" si="1"/>
-        <v>va.10.13.0</v>
+        <v>10.130.13.0</v>
       </c>
       <c r="M64" s="9" t="s">
         <v>78</v>
@@ -28067,13 +28107,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_prod</v>
       </c>
-      <c r="O64" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P64">
+      <c r="O64">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P64">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q64">
         <v>13</v>
@@ -28102,7 +28142,7 @@
       </c>
       <c r="D65" t="str">
         <f>I65&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E65&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Future_170_dept_prod_St1</v>
+        <v>Future_170_dept_prod_va</v>
       </c>
       <c r="E65" t="s">
         <v>268</v>
@@ -28116,8 +28156,8 @@
         <v>Managed</v>
       </c>
       <c r="H65" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I65" t="s">
         <v>300</v>
@@ -28127,7 +28167,7 @@
       </c>
       <c r="L65" t="str">
         <f t="shared" si="1"/>
-        <v>va.10.14.0</v>
+        <v>10.130.14.0</v>
       </c>
       <c r="M65" s="9" t="s">
         <v>78</v>
@@ -28136,13 +28176,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_prod</v>
       </c>
-      <c r="O65" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P65">
+      <c r="O65">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P65">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q65">
         <v>14</v>
@@ -28171,7 +28211,7 @@
       </c>
       <c r="D66" t="str">
         <f>I66&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E66&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Gateway_199_dept_prod_St1</v>
+        <v>Gateway_199_dept_prod_va</v>
       </c>
       <c r="E66" t="s">
         <v>268</v>
@@ -28185,8 +28225,8 @@
         <v>Managed</v>
       </c>
       <c r="H66" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I66" t="s">
         <v>501</v>
@@ -28196,7 +28236,7 @@
       </c>
       <c r="L66" t="str">
         <f t="shared" si="1"/>
-        <v>va.10.15.248</v>
+        <v>10.130.15.248</v>
       </c>
       <c r="M66" s="9" t="s">
         <v>399</v>
@@ -28205,14 +28245,14 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_prod</v>
       </c>
-      <c r="O66" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P66">
+      <c r="O66">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
       </c>
+      <c r="P66">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
+      </c>
       <c r="Q66">
         <v>15</v>
       </c>
@@ -28221,7 +28261,7 @@
       </c>
       <c r="S66" t="str">
         <f>O66&amp;"."&amp;P66&amp;"."&amp;Q66&amp;"."&amp;R66</f>
-        <v>va.10.15.248</v>
+        <v>10.130.15.248</v>
       </c>
       <c r="T66" s="9" t="s">
         <v>399</v>
@@ -28247,7 +28287,7 @@
       </c>
       <c r="D67" t="str">
         <f>I67&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E67&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Web_110_dept_prod_St2</v>
+        <v>Web_110_dept_prod_ia</v>
       </c>
       <c r="E67" t="s">
         <v>268</v>
@@ -28261,8 +28301,8 @@
         <v>Managed</v>
       </c>
       <c r="H67" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I67" t="s">
         <v>73</v>
@@ -28272,7 +28312,7 @@
       </c>
       <c r="L67" t="str">
         <f t="shared" si="1"/>
-        <v>ia.10.64.0</v>
+        <v>10.130.64.0</v>
       </c>
       <c r="M67" s="9" t="s">
         <v>78</v>
@@ -28281,14 +28321,14 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_prod</v>
       </c>
-      <c r="O67" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P67">
+      <c r="O67">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
       </c>
+      <c r="P67">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
+      </c>
       <c r="Q67">
         <v>64</v>
       </c>
@@ -28297,7 +28337,7 @@
       </c>
       <c r="S67" t="str">
         <f>O67&amp;"."&amp;P67&amp;"."&amp;Q67&amp;"."&amp;R67</f>
-        <v>ia.10.64.0</v>
+        <v>10.130.64.0</v>
       </c>
       <c r="T67" s="9" t="s">
         <v>383</v>
@@ -28323,7 +28363,7 @@
       </c>
       <c r="D68" t="str">
         <f>I68&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E68&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>App_120_dept_prod_St2</v>
+        <v>App_120_dept_prod_ia</v>
       </c>
       <c r="E68" t="s">
         <v>268</v>
@@ -28337,8 +28377,8 @@
         <v>Managed</v>
       </c>
       <c r="H68" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I68" t="s">
         <v>74</v>
@@ -28351,7 +28391,7 @@
       </c>
       <c r="L68" t="str">
         <f t="shared" ref="L68:L104" si="2">O68&amp;"."&amp;P68&amp;"."&amp;Q68&amp;"."&amp;R68</f>
-        <v>ia.10.66.0</v>
+        <v>10.130.66.0</v>
       </c>
       <c r="M68" s="9" t="s">
         <v>78</v>
@@ -28360,13 +28400,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_prod</v>
       </c>
-      <c r="O68" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P68">
+      <c r="O68">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P68">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q68">
         <v>66</v>
@@ -28395,7 +28435,7 @@
       </c>
       <c r="D69" t="str">
         <f>I69&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E69&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Database_130_dept_prod_St2</v>
+        <v>Database_130_dept_prod_ia</v>
       </c>
       <c r="E69" t="s">
         <v>268</v>
@@ -28409,8 +28449,8 @@
         <v>Managed</v>
       </c>
       <c r="H69" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I69" t="s">
         <v>75</v>
@@ -28423,7 +28463,7 @@
       </c>
       <c r="L69" t="str">
         <f t="shared" si="2"/>
-        <v>ia.10.68.0</v>
+        <v>10.130.68.0</v>
       </c>
       <c r="M69" s="9" t="s">
         <v>78</v>
@@ -28432,13 +28472,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_prod</v>
       </c>
-      <c r="O69" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P69">
+      <c r="O69">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P69">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q69">
         <v>68</v>
@@ -28467,7 +28507,7 @@
       </c>
       <c r="D70" t="str">
         <f>I70&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E70&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>DMZ_150_dept_prod_St2</v>
+        <v>DMZ_150_dept_prod_ia</v>
       </c>
       <c r="E70" t="s">
         <v>268</v>
@@ -28481,8 +28521,8 @@
         <v>Managed</v>
       </c>
       <c r="H70" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I70" t="s">
         <v>76</v>
@@ -28492,7 +28532,7 @@
       </c>
       <c r="L70" t="str">
         <f t="shared" si="2"/>
-        <v>ia.10.70.0</v>
+        <v>10.130.70.0</v>
       </c>
       <c r="M70" s="9" t="s">
         <v>78</v>
@@ -28501,13 +28541,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_prod</v>
       </c>
-      <c r="O70" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P70">
+      <c r="O70">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P70">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q70">
         <v>70</v>
@@ -28536,7 +28576,7 @@
       </c>
       <c r="D71" t="str">
         <f>I71&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E71&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>User_Tier0_160_dept_prod_St2</v>
+        <v>User_Tier0_160_dept_prod_ia</v>
       </c>
       <c r="E71" t="s">
         <v>268</v>
@@ -28550,8 +28590,8 @@
         <v>Managed</v>
       </c>
       <c r="H71" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I71" t="s">
         <v>1003</v>
@@ -28561,7 +28601,7 @@
       </c>
       <c r="L71" t="str">
         <f t="shared" si="2"/>
-        <v>ia.10.72.0</v>
+        <v>10.130.72.0</v>
       </c>
       <c r="M71" s="9" t="s">
         <v>390</v>
@@ -28570,13 +28610,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_prod</v>
       </c>
-      <c r="O71" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P71">
+      <c r="O71">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P71">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q71">
         <v>72</v>
@@ -28605,7 +28645,7 @@
       </c>
       <c r="D72" t="str">
         <f>I72&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E72&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Users_Tier1_161_dept_prod_St2</v>
+        <v>Users_Tier1_161_dept_prod_ia</v>
       </c>
       <c r="E72" t="s">
         <v>268</v>
@@ -28619,8 +28659,8 @@
         <v>Managed</v>
       </c>
       <c r="H72" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I72" t="s">
         <v>1001</v>
@@ -28630,7 +28670,7 @@
       </c>
       <c r="L72" t="str">
         <f t="shared" si="2"/>
-        <v>ia.10.72.128</v>
+        <v>10.130.72.128</v>
       </c>
       <c r="M72" s="9" t="s">
         <v>390</v>
@@ -28639,13 +28679,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_prod</v>
       </c>
-      <c r="O72" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P72">
+      <c r="O72">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P72">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q72">
         <v>72</v>
@@ -28674,7 +28714,7 @@
       </c>
       <c r="D73" t="str">
         <f>I73&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E73&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Users_Tier2_162_dept_prod_St2</v>
+        <v>Users_Tier2_162_dept_prod_ia</v>
       </c>
       <c r="E73" t="s">
         <v>268</v>
@@ -28688,8 +28728,8 @@
         <v>Managed</v>
       </c>
       <c r="H73" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I73" t="s">
         <v>1002</v>
@@ -28699,7 +28739,7 @@
       </c>
       <c r="L73" t="str">
         <f t="shared" si="2"/>
-        <v>ia.10.73.0</v>
+        <v>10.130.73.0</v>
       </c>
       <c r="M73" s="9" t="s">
         <v>390</v>
@@ -28708,13 +28748,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_prod</v>
       </c>
-      <c r="O73" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P73">
+      <c r="O73">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P73">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q73">
         <v>73</v>
@@ -28732,6 +28772,9 @@
       </c>
     </row>
     <row r="74" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>1045</v>
+      </c>
       <c r="B74">
         <v>163</v>
       </c>
@@ -28740,7 +28783,7 @@
       </c>
       <c r="D74" t="str">
         <f>I74&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E74&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Future_163_dept_prod_St2</v>
+        <v>Future_163_dept_prod_ia</v>
       </c>
       <c r="E74" t="s">
         <v>268</v>
@@ -28754,8 +28797,8 @@
         <v>Managed</v>
       </c>
       <c r="H74" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I74" t="s">
         <v>300</v>
@@ -28765,7 +28808,7 @@
       </c>
       <c r="L74" t="str">
         <f t="shared" si="2"/>
-        <v>ia.10.73.128</v>
+        <v>10.130.73.128</v>
       </c>
       <c r="M74" s="9" t="s">
         <v>390</v>
@@ -28774,13 +28817,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_prod</v>
       </c>
-      <c r="O74" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P74">
+      <c r="O74">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P74">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q74">
         <v>73</v>
@@ -28798,6 +28841,9 @@
       </c>
     </row>
     <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>1046</v>
+      </c>
       <c r="B75">
         <v>164</v>
       </c>
@@ -28806,7 +28852,7 @@
       </c>
       <c r="D75" t="str">
         <f>I75&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E75&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Future_164_dept_prod_St2</v>
+        <v>Future_164_dept_prod_ia</v>
       </c>
       <c r="E75" t="s">
         <v>268</v>
@@ -28820,8 +28866,8 @@
         <v>Managed</v>
       </c>
       <c r="H75" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I75" t="s">
         <v>300</v>
@@ -28831,7 +28877,7 @@
       </c>
       <c r="L75" t="str">
         <f t="shared" si="2"/>
-        <v>ia.10.74.0</v>
+        <v>10.130.74.0</v>
       </c>
       <c r="M75" s="9" t="s">
         <v>390</v>
@@ -28840,13 +28886,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_prod</v>
       </c>
-      <c r="O75" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P75">
+      <c r="O75">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P75">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q75">
         <v>74</v>
@@ -28875,7 +28921,7 @@
       </c>
       <c r="D76" t="str">
         <f>I76&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E76&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Future_170_dept_prod_St2</v>
+        <v>Future_170_dept_prod_ia</v>
       </c>
       <c r="E76" t="s">
         <v>268</v>
@@ -28889,8 +28935,8 @@
         <v>Managed</v>
       </c>
       <c r="H76" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I76" t="s">
         <v>300</v>
@@ -28900,7 +28946,7 @@
       </c>
       <c r="L76" t="str">
         <f t="shared" si="2"/>
-        <v>ia.10.76.0</v>
+        <v>10.130.76.0</v>
       </c>
       <c r="M76" s="9" t="s">
         <v>489</v>
@@ -28909,13 +28955,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_prod</v>
       </c>
-      <c r="O76" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P76">
+      <c r="O76">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P76">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q76">
         <v>76</v>
@@ -28944,7 +28990,7 @@
       </c>
       <c r="D77" t="str">
         <f>I77&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E77&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Future_170_dept_prod_St2</v>
+        <v>Future_170_dept_prod_ia</v>
       </c>
       <c r="E77" t="s">
         <v>268</v>
@@ -28958,8 +29004,8 @@
         <v>Managed</v>
       </c>
       <c r="H77" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I77" t="s">
         <v>300</v>
@@ -28969,7 +29015,7 @@
       </c>
       <c r="L77" t="str">
         <f t="shared" si="2"/>
-        <v>ia.10.78.0</v>
+        <v>10.130.78.0</v>
       </c>
       <c r="M77" s="9" t="s">
         <v>78</v>
@@ -28978,13 +29024,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_prod</v>
       </c>
-      <c r="O77" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P77">
+      <c r="O77">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P77">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q77">
         <v>78</v>
@@ -29013,7 +29059,7 @@
       </c>
       <c r="D78" t="str">
         <f>I78&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E78&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Gateway_199_dept_prod_St2</v>
+        <v>Gateway_199_dept_prod_ia</v>
       </c>
       <c r="E78" t="s">
         <v>268</v>
@@ -29027,8 +29073,8 @@
         <v>Managed</v>
       </c>
       <c r="H78" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I78" t="s">
         <v>501</v>
@@ -29038,7 +29084,7 @@
       </c>
       <c r="L78" t="str">
         <f t="shared" si="2"/>
-        <v>ia.10.79.248</v>
+        <v>10.130.79.248</v>
       </c>
       <c r="M78" s="9" t="s">
         <v>399</v>
@@ -29047,14 +29093,14 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_prod</v>
       </c>
-      <c r="O78" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P78">
+      <c r="O78">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
       </c>
+      <c r="P78">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
+      </c>
       <c r="Q78">
         <v>79</v>
       </c>
@@ -29063,7 +29109,7 @@
       </c>
       <c r="S78" t="str">
         <f>O78&amp;"."&amp;P78&amp;"."&amp;Q78&amp;"."&amp;R78</f>
-        <v>ia.10.79.248</v>
+        <v>10.130.79.248</v>
       </c>
       <c r="T78" s="9" t="s">
         <v>399</v>
@@ -29077,7 +29123,7 @@
         <v>sub03</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>470</v>
       </c>
@@ -29153,7 +29199,7 @@
         <v>sub04</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>471</v>
       </c>
@@ -29222,8 +29268,10 @@
         <v>sub04</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A81" s="54"/>
+    <row r="81" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>472</v>
+      </c>
       <c r="B81" s="54">
         <v>660</v>
       </c>
@@ -29262,7 +29310,7 @@
         <f t="shared" ref="L81:L82" si="3">O81&amp;"."&amp;P81&amp;"."&amp;Q81&amp;"."&amp;R81</f>
         <v>10.130.59.0</v>
       </c>
-      <c r="M81" s="69" t="s">
+      <c r="M81" s="68" t="s">
         <v>390</v>
       </c>
       <c r="N81" t="str">
@@ -29284,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="S81" s="54"/>
-      <c r="T81" s="69"/>
+      <c r="T81" s="68"/>
       <c r="U81" s="54" t="str">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],11, FALSE)</f>
         <v>SERVICES</v>
@@ -29294,8 +29342,10 @@
         <v>sub04</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A82" s="54"/>
+    <row r="82" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>473</v>
+      </c>
       <c r="B82" s="54">
         <v>661</v>
       </c>
@@ -29334,7 +29384,7 @@
         <f t="shared" si="3"/>
         <v>10.130.59.128</v>
       </c>
-      <c r="M82" s="69" t="s">
+      <c r="M82" s="68" t="s">
         <v>390</v>
       </c>
       <c r="N82" t="str">
@@ -29356,7 +29406,7 @@
         <v>128</v>
       </c>
       <c r="S82" s="54"/>
-      <c r="T82" s="69"/>
+      <c r="T82" s="68"/>
       <c r="U82" s="54" t="str">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],11, FALSE)</f>
         <v>SERVICES</v>
@@ -29366,7 +29416,7 @@
         <v>sub04</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>472</v>
       </c>
@@ -29435,7 +29485,7 @@
         <v>sub04</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>473</v>
       </c>
@@ -29511,7 +29561,7 @@
         <v>sub04</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>474</v>
       </c>
@@ -29587,7 +29637,7 @@
         <v>sub04</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>475</v>
       </c>
@@ -29656,8 +29706,10 @@
         <v>sub04</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A87" s="54"/>
+    <row r="87" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>1047</v>
+      </c>
       <c r="B87" s="54">
         <v>660</v>
       </c>
@@ -29696,7 +29748,7 @@
         <f t="shared" si="2"/>
         <v>10.130.123.0</v>
       </c>
-      <c r="M87" s="69" t="s">
+      <c r="M87" s="68" t="s">
         <v>390</v>
       </c>
       <c r="N87" t="str">
@@ -29718,7 +29770,7 @@
         <v>0</v>
       </c>
       <c r="S87" s="54"/>
-      <c r="T87" s="69"/>
+      <c r="T87" s="68"/>
       <c r="U87" s="54" t="str">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],11, FALSE)</f>
         <v>SERVICES</v>
@@ -29728,8 +29780,10 @@
         <v>sub04</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A88" s="54"/>
+    <row r="88" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>1048</v>
+      </c>
       <c r="B88" s="54">
         <v>661</v>
       </c>
@@ -29768,7 +29822,7 @@
         <f t="shared" si="2"/>
         <v>10.130.123.128</v>
       </c>
-      <c r="M88" s="69" t="s">
+      <c r="M88" s="68" t="s">
         <v>390</v>
       </c>
       <c r="N88" t="str">
@@ -29790,7 +29844,7 @@
         <v>128</v>
       </c>
       <c r="S88" s="54"/>
-      <c r="T88" s="69"/>
+      <c r="T88" s="68"/>
       <c r="U88" s="54" t="str">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],11, FALSE)</f>
         <v>SERVICES</v>
@@ -29800,7 +29854,7 @@
         <v>sub04</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>476</v>
       </c>
@@ -29869,7 +29923,7 @@
         <v>sub04</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>477</v>
       </c>
@@ -29957,7 +30011,7 @@
       </c>
       <c r="D91" t="str">
         <f>I91&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E91&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Storage_500_dept_Storage_St1</v>
+        <v>Storage_500_dept_Storage_va</v>
       </c>
       <c r="E91" t="s">
         <v>211</v>
@@ -29971,8 +30025,8 @@
         <v>Managed</v>
       </c>
       <c r="H91" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I91" t="s">
         <v>211</v>
@@ -29982,7 +30036,7 @@
       </c>
       <c r="L91" t="str">
         <f t="shared" si="2"/>
-        <v>va.10.48.0</v>
+        <v>10.130.48.0</v>
       </c>
       <c r="M91" s="9" t="s">
         <v>78</v>
@@ -29991,14 +30045,14 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_storage</v>
       </c>
-      <c r="O91" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P91">
+      <c r="O91">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
       </c>
+      <c r="P91">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
+      </c>
       <c r="Q91">
         <v>48</v>
       </c>
@@ -30007,7 +30061,7 @@
       </c>
       <c r="S91" t="str">
         <f>O91&amp;"."&amp;P91&amp;"."&amp;Q91&amp;"."&amp;R91</f>
-        <v>va.10.48.0</v>
+        <v>10.130.48.0</v>
       </c>
       <c r="T91" s="9" t="s">
         <v>302</v>
@@ -30022,7 +30076,9 @@
       </c>
     </row>
     <row r="92" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="54"/>
+      <c r="A92" t="s">
+        <v>1049</v>
+      </c>
       <c r="B92" s="54">
         <v>560</v>
       </c>
@@ -30031,7 +30087,7 @@
       </c>
       <c r="D92" s="54" t="str">
         <f>I92&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E92&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>User_Tier0_560_dept_Storage_St1</v>
+        <v>User_Tier0_560_dept_Storage_va</v>
       </c>
       <c r="E92" t="s">
         <v>211</v>
@@ -30044,9 +30100,9 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All], 9, FALSE)</f>
         <v>Managed</v>
       </c>
-      <c r="H92" s="68" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+      <c r="H92" t="str">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I92" t="s">
         <v>1003</v>
@@ -30056,23 +30112,23 @@
       </c>
       <c r="L92" t="str">
         <f t="shared" si="2"/>
-        <v>va.10.49.0</v>
-      </c>
-      <c r="M92" s="69" t="s">
+        <v>10.130.49.0</v>
+      </c>
+      <c r="M92" s="68" t="s">
         <v>390</v>
       </c>
       <c r="N92" t="str">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_storage</v>
       </c>
-      <c r="O92" s="54" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P92" s="54">
+      <c r="O92">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
       </c>
+      <c r="P92">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
+      </c>
       <c r="Q92" s="54">
         <v>49</v>
       </c>
@@ -30080,7 +30136,7 @@
         <v>0</v>
       </c>
       <c r="S92" s="54"/>
-      <c r="T92" s="69"/>
+      <c r="T92" s="68"/>
       <c r="U92" s="54" t="str">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],11, FALSE)</f>
         <v>STORAGE</v>
@@ -30091,7 +30147,9 @@
       </c>
     </row>
     <row r="93" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="54"/>
+      <c r="A93" t="s">
+        <v>1050</v>
+      </c>
       <c r="B93" s="54">
         <v>561</v>
       </c>
@@ -30100,7 +30158,7 @@
       </c>
       <c r="D93" s="54" t="str">
         <f>I93&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E93&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Users_Tier1_561_dept_Storage_St1</v>
+        <v>Users_Tier1_561_dept_Storage_va</v>
       </c>
       <c r="E93" t="s">
         <v>211</v>
@@ -30113,9 +30171,9 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All], 9, FALSE)</f>
         <v>Managed</v>
       </c>
-      <c r="H93" s="68" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+      <c r="H93" t="str">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I93" t="s">
         <v>1001</v>
@@ -30125,23 +30183,23 @@
       </c>
       <c r="L93" t="str">
         <f t="shared" si="2"/>
-        <v>va.10.49.128</v>
-      </c>
-      <c r="M93" s="69" t="s">
+        <v>10.130.49.128</v>
+      </c>
+      <c r="M93" s="68" t="s">
         <v>390</v>
       </c>
       <c r="N93" t="str">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_storage</v>
       </c>
-      <c r="O93" s="54" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P93" s="54">
+      <c r="O93">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
       </c>
+      <c r="P93">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
+      </c>
       <c r="Q93" s="54">
         <v>49</v>
       </c>
@@ -30149,7 +30207,7 @@
         <v>128</v>
       </c>
       <c r="S93" s="54"/>
-      <c r="T93" s="69"/>
+      <c r="T93" s="68"/>
       <c r="U93" s="54" t="str">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],11, FALSE)</f>
         <v>STORAGE</v>
@@ -30171,7 +30229,7 @@
       </c>
       <c r="D94" t="str">
         <f>I94&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E94&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Future_570_dept_Storage_St1</v>
+        <v>Future_570_dept_Storage_va</v>
       </c>
       <c r="E94" t="s">
         <v>211</v>
@@ -30185,8 +30243,8 @@
         <v>Managed</v>
       </c>
       <c r="H94" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I94" t="s">
         <v>300</v>
@@ -30196,7 +30254,7 @@
       </c>
       <c r="L94" t="str">
         <f t="shared" si="2"/>
-        <v>va.10.50.0</v>
+        <v>10.130.50.0</v>
       </c>
       <c r="M94" s="9" t="s">
         <v>489</v>
@@ -30205,13 +30263,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_storage</v>
       </c>
-      <c r="O94" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P94">
+      <c r="O94">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P94">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q94">
         <v>50</v>
@@ -30240,7 +30298,7 @@
       </c>
       <c r="D95" t="str">
         <f>I95&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E95&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Future_570_dept_Storage_St1</v>
+        <v>Future_570_dept_Storage_va</v>
       </c>
       <c r="E95" t="s">
         <v>211</v>
@@ -30254,8 +30312,8 @@
         <v>Managed</v>
       </c>
       <c r="H95" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I95" t="s">
         <v>300</v>
@@ -30265,7 +30323,7 @@
       </c>
       <c r="L95" t="str">
         <f t="shared" si="2"/>
-        <v>va.10.52.0</v>
+        <v>10.130.52.0</v>
       </c>
       <c r="M95" s="9" t="s">
         <v>489</v>
@@ -30274,13 +30332,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_storage</v>
       </c>
-      <c r="O95" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P95">
+      <c r="O95">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P95">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q95">
         <v>52</v>
@@ -30309,7 +30367,7 @@
       </c>
       <c r="D96" t="str">
         <f>I96&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E96&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Future_570_dept_Storage_St1</v>
+        <v>Future_570_dept_Storage_va</v>
       </c>
       <c r="E96" t="s">
         <v>211</v>
@@ -30323,8 +30381,8 @@
         <v>Managed</v>
       </c>
       <c r="H96" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I96" t="s">
         <v>300</v>
@@ -30334,7 +30392,7 @@
       </c>
       <c r="L96" t="str">
         <f t="shared" si="2"/>
-        <v>va.10.54.0</v>
+        <v>10.130.54.0</v>
       </c>
       <c r="M96" s="9" t="s">
         <v>78</v>
@@ -30343,13 +30401,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_storage</v>
       </c>
-      <c r="O96" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P96">
+      <c r="O96">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P96">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q96">
         <v>54</v>
@@ -30378,7 +30436,7 @@
       </c>
       <c r="D97" t="str">
         <f>I97&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E97&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Gateway_599_dept_Storage_St1</v>
+        <v>Gateway_599_dept_Storage_va</v>
       </c>
       <c r="E97" t="s">
         <v>211</v>
@@ -30392,8 +30450,8 @@
         <v>Managed</v>
       </c>
       <c r="H97" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St1</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>va</v>
       </c>
       <c r="I97" t="s">
         <v>501</v>
@@ -30403,7 +30461,7 @@
       </c>
       <c r="L97" t="str">
         <f t="shared" si="2"/>
-        <v>va.10.55.248</v>
+        <v>10.130.55.248</v>
       </c>
       <c r="M97" s="9" t="s">
         <v>399</v>
@@ -30412,14 +30470,14 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_storage</v>
       </c>
-      <c r="O97" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>va</v>
-      </c>
-      <c r="P97">
+      <c r="O97">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
       </c>
+      <c r="P97">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
+      </c>
       <c r="Q97">
         <v>55</v>
       </c>
@@ -30428,7 +30486,7 @@
       </c>
       <c r="S97" t="str">
         <f>O97&amp;"."&amp;P97&amp;"."&amp;Q97&amp;"."&amp;R97</f>
-        <v>va.10.55.248</v>
+        <v>10.130.55.248</v>
       </c>
       <c r="T97" s="9" t="s">
         <v>399</v>
@@ -30454,7 +30512,7 @@
       </c>
       <c r="D98" t="str">
         <f>I98&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E98&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Storage_500_dept_Storage_St2</v>
+        <v>Storage_500_dept_Storage_ia</v>
       </c>
       <c r="E98" t="s">
         <v>211</v>
@@ -30468,8 +30526,8 @@
         <v>Managed</v>
       </c>
       <c r="H98" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I98" t="s">
         <v>211</v>
@@ -30479,7 +30537,7 @@
       </c>
       <c r="L98" t="str">
         <f t="shared" si="2"/>
-        <v>ia.10.112.0</v>
+        <v>10.130.112.0</v>
       </c>
       <c r="M98" s="9" t="s">
         <v>78</v>
@@ -30488,14 +30546,14 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_storage</v>
       </c>
-      <c r="O98" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P98">
+      <c r="O98">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
       </c>
+      <c r="P98">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
+      </c>
       <c r="Q98">
         <v>112</v>
       </c>
@@ -30504,7 +30562,7 @@
       </c>
       <c r="S98" t="str">
         <f>O98&amp;"."&amp;P98&amp;"."&amp;Q98&amp;"."&amp;R98</f>
-        <v>ia.10.112.0</v>
+        <v>10.130.112.0</v>
       </c>
       <c r="T98" s="9" t="s">
         <v>302</v>
@@ -30519,7 +30577,9 @@
       </c>
     </row>
     <row r="99" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="54"/>
+      <c r="A99" t="s">
+        <v>1051</v>
+      </c>
       <c r="B99" s="54">
         <v>560</v>
       </c>
@@ -30528,7 +30588,7 @@
       </c>
       <c r="D99" s="54" t="str">
         <f>I99&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E99&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>User_Tier0_560_dept_Storage_St2</v>
+        <v>User_Tier0_560_dept_Storage_ia</v>
       </c>
       <c r="E99" t="s">
         <v>211</v>
@@ -30541,9 +30601,9 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All], 9, FALSE)</f>
         <v>Managed</v>
       </c>
-      <c r="H99" s="68" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+      <c r="H99" t="str">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I99" t="s">
         <v>1003</v>
@@ -30553,23 +30613,23 @@
       </c>
       <c r="L99" t="str">
         <f t="shared" ref="L99:L100" si="4">O99&amp;"."&amp;P99&amp;"."&amp;Q99&amp;"."&amp;R99</f>
-        <v>ia.10.113.0</v>
-      </c>
-      <c r="M99" s="69" t="s">
+        <v>10.130.113.0</v>
+      </c>
+      <c r="M99" s="68" t="s">
         <v>390</v>
       </c>
       <c r="N99" t="str">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_storage</v>
       </c>
-      <c r="O99" s="54" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P99" s="54">
+      <c r="O99">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
       </c>
+      <c r="P99">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
+      </c>
       <c r="Q99" s="54">
         <v>113</v>
       </c>
@@ -30577,7 +30637,7 @@
         <v>0</v>
       </c>
       <c r="S99" s="54"/>
-      <c r="T99" s="69"/>
+      <c r="T99" s="68"/>
       <c r="U99" s="54" t="str">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],11, FALSE)</f>
         <v>STORAGE</v>
@@ -30588,7 +30648,9 @@
       </c>
     </row>
     <row r="100" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="54"/>
+      <c r="A100" t="s">
+        <v>1052</v>
+      </c>
       <c r="B100" s="54">
         <v>561</v>
       </c>
@@ -30597,7 +30659,7 @@
       </c>
       <c r="D100" s="54" t="str">
         <f>I100&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E100&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Users_Tier1_561_dept_Storage_St2</v>
+        <v>Users_Tier1_561_dept_Storage_ia</v>
       </c>
       <c r="E100" t="s">
         <v>211</v>
@@ -30610,9 +30672,9 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All], 9, FALSE)</f>
         <v>Managed</v>
       </c>
-      <c r="H100" s="68" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+      <c r="H100" t="str">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I100" t="s">
         <v>1001</v>
@@ -30622,23 +30684,23 @@
       </c>
       <c r="L100" t="str">
         <f t="shared" si="4"/>
-        <v>ia.10.113.128</v>
-      </c>
-      <c r="M100" s="69" t="s">
+        <v>10.130.113.128</v>
+      </c>
+      <c r="M100" s="68" t="s">
         <v>390</v>
       </c>
       <c r="N100" t="str">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_storage</v>
       </c>
-      <c r="O100" s="54" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P100" s="54">
+      <c r="O100">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
       </c>
+      <c r="P100">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
+      </c>
       <c r="Q100" s="54">
         <v>113</v>
       </c>
@@ -30646,7 +30708,7 @@
         <v>128</v>
       </c>
       <c r="S100" s="54"/>
-      <c r="T100" s="69"/>
+      <c r="T100" s="68"/>
       <c r="U100" s="54" t="str">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],11, FALSE)</f>
         <v>STORAGE</v>
@@ -30668,7 +30730,7 @@
       </c>
       <c r="D101" t="str">
         <f>I101&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E101&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Future_570_dept_Storage_St2</v>
+        <v>Future_570_dept_Storage_ia</v>
       </c>
       <c r="E101" t="s">
         <v>211</v>
@@ -30682,8 +30744,8 @@
         <v>Managed</v>
       </c>
       <c r="H101" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I101" t="s">
         <v>300</v>
@@ -30693,7 +30755,7 @@
       </c>
       <c r="L101" t="str">
         <f t="shared" si="2"/>
-        <v>ia.10.114.0</v>
+        <v>10.130.114.0</v>
       </c>
       <c r="M101" s="9" t="s">
         <v>373</v>
@@ -30702,13 +30764,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_storage</v>
       </c>
-      <c r="O101" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P101">
+      <c r="O101">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P101">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q101">
         <v>114</v>
@@ -30737,7 +30799,7 @@
       </c>
       <c r="D102" t="str">
         <f>I102&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E102&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Future_570_dept_Storage_St2</v>
+        <v>Future_570_dept_Storage_ia</v>
       </c>
       <c r="E102" t="s">
         <v>211</v>
@@ -30751,8 +30813,8 @@
         <v>Managed</v>
       </c>
       <c r="H102" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I102" t="s">
         <v>300</v>
@@ -30762,7 +30824,7 @@
       </c>
       <c r="L102" t="str">
         <f t="shared" si="2"/>
-        <v>ia.10.116.0</v>
+        <v>10.130.116.0</v>
       </c>
       <c r="M102" s="9" t="s">
         <v>373</v>
@@ -30771,13 +30833,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_storage</v>
       </c>
-      <c r="O102" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P102">
+      <c r="O102">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P102">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q102">
         <v>116</v>
@@ -30806,7 +30868,7 @@
       </c>
       <c r="D103" t="str">
         <f>I103&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E103&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Future_570_dept_Storage_St2</v>
+        <v>Future_570_dept_Storage_ia</v>
       </c>
       <c r="E103" t="s">
         <v>211</v>
@@ -30820,8 +30882,8 @@
         <v>Managed</v>
       </c>
       <c r="H103" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I103" t="s">
         <v>300</v>
@@ -30831,7 +30893,7 @@
       </c>
       <c r="L103" t="str">
         <f t="shared" si="2"/>
-        <v>ia.10.118.0</v>
+        <v>10.130.118.0</v>
       </c>
       <c r="M103" s="9" t="s">
         <v>78</v>
@@ -30840,13 +30902,13 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_storage</v>
       </c>
-      <c r="O103" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P103">
+      <c r="O103">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
+      </c>
+      <c r="P103">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
       </c>
       <c r="Q103">
         <v>118</v>
@@ -30875,7 +30937,7 @@
       </c>
       <c r="D104" t="str">
         <f>I104&amp;"_"&amp;Subnets[[#This Row],[SubNetNumber]]&amp;"_"&amp;Subnets[[#This Row],[Dept. (Computed)]]&amp;"_"&amp;E104&amp;"_"&amp;Subnets[[#This Row],[Location (Computed)]]</f>
-        <v>Gateway_599_dept_Storage_St2</v>
+        <v>Gateway_599_dept_Storage_ia</v>
       </c>
       <c r="E104" t="s">
         <v>211</v>
@@ -30889,8 +30951,8 @@
         <v>Managed</v>
       </c>
       <c r="H104" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],12, FALSE)</f>
-        <v>St2</v>
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],13, FALSE)</f>
+        <v>ia</v>
       </c>
       <c r="I104" t="s">
         <v>501</v>
@@ -30900,7 +30962,7 @@
       </c>
       <c r="L104" t="str">
         <f t="shared" si="2"/>
-        <v>ia.10.119.248</v>
+        <v>10.130.119.248</v>
       </c>
       <c r="M104" s="9" t="s">
         <v>399</v>
@@ -30909,14 +30971,14 @@
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]],VNETS[#All],7, FALSE)</f>
         <v>mag_dept_managed_storage</v>
       </c>
-      <c r="O104" t="str">
-        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 13, FALSE)</f>
-        <v>ia</v>
-      </c>
-      <c r="P104">
+      <c r="O104">
         <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 14, FALSE)</f>
         <v>10</v>
       </c>
+      <c r="P104">
+        <f>VLOOKUP(Subnets[[#This Row],[VNETID]], VNETS[#All], 15, FALSE)</f>
+        <v>130</v>
+      </c>
       <c r="Q104">
         <v>119</v>
       </c>
@@ -30925,7 +30987,7 @@
       </c>
       <c r="S104" t="str">
         <f>O104&amp;"."&amp;P104&amp;"."&amp;Q104&amp;"."&amp;R104</f>
-        <v>ia.10.119.248</v>
+        <v>10.130.119.248</v>
       </c>
       <c r="T104" s="9" t="s">
         <v>399</v>
